--- a/アカウント削除ー更新_結合テスト.xlsx
+++ b/アカウント削除ー更新_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test-case/test-case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{FDBE3859-432D-420F-A69A-02326D8B9F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D27AC4A4-C3B2-498C-9471-FA96012A5BD9}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{700CD451-F681-4982-B98C-048E27F7310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AAD34DB-F352-4948-BB9B-5FD0127EB281}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" firstSheet="1" activeTab="8" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="9" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="255">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -3236,16 +3236,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新された「パスワード」を●で表示</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「パスワード」の更新情報が●で表示されているか</t>
     <rPh sb="8" eb="10">
       <t>コウシン</t>
@@ -3604,19 +3594,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新された「パスワード」がハッシュ化されて表示</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新された「郵便番号」が表示</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -3703,6 +3680,74 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「更新日時」が更新されているか</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新を行った日の表示</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新された「パスワード」が文字数分●で表示</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新された「パスワード」が新たにハッシュ化されて表示</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空欄になっている</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3792,7 +3837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3817,14 +3862,1200 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="221">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3848,1195 +5079,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -6986,17 +7028,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{795428E1-E854-4DC7-8C4F-2E05D122C470}" name="テーブル31517" displayName="テーブル31517" ref="A47:I52" headerRowCount="0" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{795428E1-E854-4DC7-8C4F-2E05D122C470}" name="テーブル31517" displayName="テーブル31517" ref="A47:I52" headerRowCount="0" totalsRowShown="0" headerRowDxfId="91">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{894BB36D-A906-4CA2-80FC-0147043D99B8}" name="項目番号" headerRowDxfId="91" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{648393ED-B4FC-48DB-A18B-ACE7F1848F7A}" name="大項目" headerRowDxfId="90" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{DECCA3A4-9A60-41B3-9D94-F381A925A5F8}" name="列3" headerRowDxfId="89" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{76A087F1-E4F1-4E2C-ACAE-7BC7A280B708}" name="確認内容" headerRowDxfId="88" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{6BE08CD5-AE09-4DC7-B197-F1B9261B0B74}" name="操作手順" headerRowDxfId="87" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{859F9FFC-3ED9-4FAB-B456-BE0E756451FC}" name="期待値" headerRowDxfId="86" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{C6F7D79F-3C31-4AD7-B9A8-D34553111841}" name="実施日" headerRowDxfId="85" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{6B8639B3-B3E7-4DB1-8F69-285BE4A9796A}" name="実施結果" headerRowDxfId="84" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{4FAFE7AC-D44C-4563-9A1D-3DF2374A0636}" name="備考" headerRowDxfId="83" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{894BB36D-A906-4CA2-80FC-0147043D99B8}" name="項目番号" headerRowDxfId="90" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{648393ED-B4FC-48DB-A18B-ACE7F1848F7A}" name="大項目" headerRowDxfId="88" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{DECCA3A4-9A60-41B3-9D94-F381A925A5F8}" name="列3" headerRowDxfId="86" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{76A087F1-E4F1-4E2C-ACAE-7BC7A280B708}" name="確認内容" headerRowDxfId="84" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{6BE08CD5-AE09-4DC7-B197-F1B9261B0B74}" name="操作手順" headerRowDxfId="82" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{859F9FFC-3ED9-4FAB-B456-BE0E756451FC}" name="期待値" headerRowDxfId="80" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{C6F7D79F-3C31-4AD7-B9A8-D34553111841}" name="実施日" headerRowDxfId="78" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{6B8639B3-B3E7-4DB1-8F69-285BE4A9796A}" name="実施結果" headerRowDxfId="77" dataDxfId="76"/>
+    <tableColumn id="9" xr3:uid="{4FAFE7AC-D44C-4563-9A1D-3DF2374A0636}" name="備考" headerRowDxfId="75" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7005,32 +7047,32 @@
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{26A45C71-42F6-442A-9322-A4EDFEEEFC8B}" name="テーブル2818" displayName="テーブル2818" ref="A7:I11" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BA911E6F-D3D9-458C-9CA6-4B92B8F11D6E}" name="項目番号" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{F4FF0E24-D236-4EF3-B9A6-DE071048B667}" name="大項目" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{8245AC3B-D849-4BF3-92EB-EE5969BC03CB}" name="列3" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{2BDD7CAB-79F5-4C6C-9160-B9BEC441EEDD}" name="確認内容" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{734A262C-BE4E-4552-8D88-2E782EC5A521}" name="操作手順" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{BEC80A4A-7B56-41C8-B6F7-021DA2CCFA7D}" name="期待値" dataDxfId="77"/>
-    <tableColumn id="7" xr3:uid="{95D4B99B-387D-4BE6-9A27-E75A41CDEBC2}" name="実施日" dataDxfId="76"/>
-    <tableColumn id="8" xr3:uid="{E3370ABC-D356-442F-8936-69033A22A3C5}" name="実施結果" dataDxfId="75"/>
-    <tableColumn id="9" xr3:uid="{D1CD7051-94FF-41B4-B154-82392AD2B8E1}" name="備考" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{BA911E6F-D3D9-458C-9CA6-4B92B8F11D6E}" name="項目番号" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{F4FF0E24-D236-4EF3-B9A6-DE071048B667}" name="大項目" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{8245AC3B-D849-4BF3-92EB-EE5969BC03CB}" name="列3" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{2BDD7CAB-79F5-4C6C-9160-B9BEC441EEDD}" name="確認内容" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{734A262C-BE4E-4552-8D88-2E782EC5A521}" name="操作手順" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{BEC80A4A-7B56-41C8-B6F7-021DA2CCFA7D}" name="期待値" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{95D4B99B-387D-4BE6-9A27-E75A41CDEBC2}" name="実施日" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{E3370ABC-D356-442F-8936-69033A22A3C5}" name="実施結果" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{D1CD7051-94FF-41B4-B154-82392AD2B8E1}" name="備考" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D4684996-0139-4300-AD34-B21965269EA5}" name="テーブル3919" displayName="テーブル3919" ref="A12:I20" headerRowCount="0" totalsRowShown="0" headerRowDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D4684996-0139-4300-AD34-B21965269EA5}" name="テーブル3919" displayName="テーブル3919" ref="A12:I20" headerRowCount="0" totalsRowShown="0" headerRowDxfId="64">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6039B8E9-7C8A-470A-9449-5A8E9C77A3D0}" name="項目番号" headerRowDxfId="72" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{6910BF8A-3ABC-4B17-BD8D-980B5BB92955}" name="大項目" headerRowDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{EBC38437-BEC4-40BE-846A-512D6620C1EB}" name="列3" headerRowDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{46CC1FDC-E3C5-42EE-8749-8648CE182B5F}" name="確認内容" headerRowDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{36DD1286-2D83-4527-A354-5DB1FB557B31}" name="操作手順" headerRowDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{9F1A87AD-CEB5-467B-97B8-9F82AA11FE7E}" name="期待値" headerRowDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{9A8E2ABE-B02E-4509-AC7A-53D3611B45B3}" name="実施日" headerRowDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{03EA1545-0EF2-4365-9181-295A169BFAAF}" name="実施結果" headerRowDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{D32A447E-B901-4386-85D5-4F409A00B8C6}" name="備考" headerRowDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{6039B8E9-7C8A-470A-9449-5A8E9C77A3D0}" name="項目番号" headerRowDxfId="63" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{6910BF8A-3ABC-4B17-BD8D-980B5BB92955}" name="大項目" headerRowDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{EBC38437-BEC4-40BE-846A-512D6620C1EB}" name="列3" headerRowDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{46CC1FDC-E3C5-42EE-8749-8648CE182B5F}" name="確認内容" headerRowDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{36DD1286-2D83-4527-A354-5DB1FB557B31}" name="操作手順" headerRowDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{9F1A87AD-CEB5-467B-97B8-9F82AA11FE7E}" name="期待値" headerRowDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{9A8E2ABE-B02E-4509-AC7A-53D3611B45B3}" name="実施日" headerRowDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{03EA1545-0EF2-4365-9181-295A169BFAAF}" name="実施結果" headerRowDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{D32A447E-B901-4386-85D5-4F409A00B8C6}" name="備考" headerRowDxfId="54"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7039,32 +7081,32 @@
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D68400FE-558F-414E-AC3F-9641EDFD3A79}" name="テーブル21022" displayName="テーブル21022" ref="A7:I49" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{18798C31-FD6A-4A2E-9045-5E929F34EF2B}" name="項目番号" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{1997B3AC-F1FC-4E4D-B758-44F58C9110AB}" name="大項目" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{514BF36B-9B6E-4CE5-9E69-3DAE1D03E175}" name="列3" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{0EE019BC-4E27-4EDE-A931-6C65E50F754A}" name="確認内容" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{71ACD601-E5F5-425B-953C-91B389BBCF4C}" name="操作手順" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{09FFAA6B-E021-4544-8905-99E8624449D8}" name="期待値" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{7E1A6883-6BFD-4245-8DDF-BF12CE6E4F44}" name="実施日" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{0D51FD17-E0B6-4057-B45D-53E20FBFE2B3}" name="実施結果" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{7EF0B136-CA63-438D-A42D-897B6CCCFD1F}" name="備考" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{18798C31-FD6A-4A2E-9045-5E929F34EF2B}" name="項目番号" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{1997B3AC-F1FC-4E4D-B758-44F58C9110AB}" name="大項目" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{514BF36B-9B6E-4CE5-9E69-3DAE1D03E175}" name="列3" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{0EE019BC-4E27-4EDE-A931-6C65E50F754A}" name="確認内容" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{71ACD601-E5F5-425B-953C-91B389BBCF4C}" name="操作手順" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{09FFAA6B-E021-4544-8905-99E8624449D8}" name="期待値" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{7E1A6883-6BFD-4245-8DDF-BF12CE6E4F44}" name="実施日" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{0D51FD17-E0B6-4057-B45D-53E20FBFE2B3}" name="実施結果" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{7EF0B136-CA63-438D-A42D-897B6CCCFD1F}" name="備考" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{E25D1CD9-AB27-4D1A-AEE9-7A7255336AD9}" name="テーブル31123" displayName="テーブル31123" ref="A50:I54" headerRowCount="0" totalsRowShown="0" headerRowDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{E25D1CD9-AB27-4D1A-AEE9-7A7255336AD9}" name="テーブル31123" displayName="テーブル31123" ref="A50:I54" headerRowCount="0" totalsRowShown="0" headerRowDxfId="44">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1DE8F91D-C101-45FF-BED3-33B230AA82A1}" name="項目番号" headerRowDxfId="52" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{4692C58C-BD36-4DDC-BCE6-D1C06CE897C5}" name="大項目" headerRowDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{1D4B0655-5093-47D6-8C92-C01DD3B2F164}" name="列3" headerRowDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{F3706C9A-7E7F-43D1-B9BB-19A9F656DB63}" name="確認内容" headerRowDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{C3993256-81B2-418E-935C-50AD042A05CB}" name="操作手順" headerRowDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{B77CA380-A406-4786-A21E-8B8652DD0F8F}" name="期待値" headerRowDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{18E5C3CA-313A-46EA-AA8D-0D425B9E1FE1}" name="実施日" headerRowDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{69BC504E-F659-4CAE-BDBD-FD3971DA1796}" name="実施結果" headerRowDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{FC7FFEA9-9C5E-4EBD-B5B3-A6683E1884C2}" name="備考" headerRowDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{1DE8F91D-C101-45FF-BED3-33B230AA82A1}" name="項目番号" headerRowDxfId="43" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{4692C58C-BD36-4DDC-BCE6-D1C06CE897C5}" name="大項目" headerRowDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{1D4B0655-5093-47D6-8C92-C01DD3B2F164}" name="列3" headerRowDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{F3706C9A-7E7F-43D1-B9BB-19A9F656DB63}" name="確認内容" headerRowDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{C3993256-81B2-418E-935C-50AD042A05CB}" name="操作手順" headerRowDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{B77CA380-A406-4786-A21E-8B8652DD0F8F}" name="期待値" headerRowDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{18E5C3CA-313A-46EA-AA8D-0D425B9E1FE1}" name="実施日" headerRowDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{69BC504E-F659-4CAE-BDBD-FD3971DA1796}" name="実施結果" headerRowDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{FC7FFEA9-9C5E-4EBD-B5B3-A6683E1884C2}" name="備考" headerRowDxfId="34"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7073,15 +7115,15 @@
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{A8B6C67B-F19F-45F0-9044-D117CC2573A0}" name="テーブル281220" displayName="テーブル281220" ref="A7:I11" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{60D3824F-E3FC-4B7C-95E9-89772A150DCA}" name="項目番号" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{57CB82D1-7FE1-4EBB-A31E-5D93135B4C16}" name="大項目" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{D6F62A87-DF1C-4C82-B65C-753311BAB6F9}" name="列3" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{4FAB426E-2733-4C1C-B11B-167182340E03}" name="確認内容" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{8A1056D9-E6DD-4C4F-8C66-13F7C2BC6F09}" name="操作手順" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{8FD79C11-4ADE-4D6E-B397-BE527AA97FF5}" name="期待値" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{48FE1BDE-1D57-4A6F-A1F8-2251639BD1D4}" name="実施日" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{FC5D6BA7-636D-4E6F-BBBB-9C78B2C641D6}" name="実施結果" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{336518F5-BFDC-46DF-911F-041F96988426}" name="備考" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{60D3824F-E3FC-4B7C-95E9-89772A150DCA}" name="項目番号" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{57CB82D1-7FE1-4EBB-A31E-5D93135B4C16}" name="大項目" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{D6F62A87-DF1C-4C82-B65C-753311BAB6F9}" name="列3" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{4FAB426E-2733-4C1C-B11B-167182340E03}" name="確認内容" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{8A1056D9-E6DD-4C4F-8C66-13F7C2BC6F09}" name="操作手順" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{8FD79C11-4ADE-4D6E-B397-BE527AA97FF5}" name="期待値" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{48FE1BDE-1D57-4A6F-A1F8-2251639BD1D4}" name="実施日" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{FC5D6BA7-636D-4E6F-BBBB-9C78B2C641D6}" name="実施結果" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{336518F5-BFDC-46DF-911F-041F96988426}" name="備考" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7105,43 +7147,43 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6C4A35CE-5C20-452B-821C-4B89CE16C0EF}" name="テーブル391321" displayName="テーブル391321" ref="A12:I16" headerRowCount="0" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6C4A35CE-5C20-452B-821C-4B89CE16C0EF}" name="テーブル391321" displayName="テーブル391321" ref="A12:I16" headerRowCount="0" totalsRowShown="0" headerRowDxfId="24">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{048B8763-1FA9-4C48-8453-84284C3B2BE3}" name="項目番号" headerRowDxfId="32" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{59AE58CE-D1CB-4FDF-A5AB-D5CA76F30C49}" name="大項目" headerRowDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{6C6BAA3C-0246-46D6-84DB-26BB4F2340EF}" name="列3" headerRowDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{2E556FC9-763E-4A55-BD53-58C986393D78}" name="確認内容" headerRowDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{194901A2-ABD9-4B2D-84E7-CA8C68368861}" name="操作手順" headerRowDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{EC06EF13-D880-45B4-A2DC-3B6F4EABAE92}" name="期待値" headerRowDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{47330801-3154-48AB-8617-E5809D5D0387}" name="実施日" headerRowDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{C712C3D3-C34A-4837-AE4C-87E8273AB788}" name="実施結果" headerRowDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{033C9D9C-5AB6-4458-BB96-44DC91CD6CC6}" name="備考" headerRowDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{048B8763-1FA9-4C48-8453-84284C3B2BE3}" name="項目番号" headerRowDxfId="23" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{59AE58CE-D1CB-4FDF-A5AB-D5CA76F30C49}" name="大項目" headerRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{6C6BAA3C-0246-46D6-84DB-26BB4F2340EF}" name="列3" headerRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{2E556FC9-763E-4A55-BD53-58C986393D78}" name="確認内容" headerRowDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{194901A2-ABD9-4B2D-84E7-CA8C68368861}" name="操作手順" headerRowDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{EC06EF13-D880-45B4-A2DC-3B6F4EABAE92}" name="期待値" headerRowDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{47330801-3154-48AB-8617-E5809D5D0387}" name="実施日" headerRowDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{C712C3D3-C34A-4837-AE4C-87E8273AB788}" name="実施結果" headerRowDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{033C9D9C-5AB6-4458-BB96-44DC91CD6CC6}" name="備考" headerRowDxfId="14"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A56:I59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A56:I59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="13">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="21" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{9E87206C-E088-455F-A9D6-FC736686CFC6}" name="列3" headerRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{868A7FB1-E2B0-4860-AF74-B6163A844F93}" name="列1" headerRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{C35781CE-B2D7-4097-BE07-16E1976D1DE1}" name="操作手順" headerRowDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{2E97C731-1BA3-4A6D-A8AA-DA271D4F1BF4}" name="期待値" headerRowDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="12" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{9E87206C-E088-455F-A9D6-FC736686CFC6}" name="列3" headerRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{868A7FB1-E2B0-4860-AF74-B6163A844F93}" name="列1" headerRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C35781CE-B2D7-4097-BE07-16E1976D1DE1}" name="操作手順" headerRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{2E97C731-1BA3-4A6D-A8AA-DA271D4F1BF4}" name="期待値" headerRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I39" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I39" totalsRowShown="0" headerRowDxfId="2">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{58AAC923-C89D-4FA4-8219-AE907CFFC2DC}" name="大項目"/>
     <tableColumn id="3" xr3:uid="{582A2686-E28B-490A-8FA1-112B4B468D7E}" name="列3"/>
     <tableColumn id="4" xr3:uid="{7FF85854-A416-4892-9D1F-7E6D0675F464}" name="確認内容"/>
@@ -7593,8 +7635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7699,8 +7741,12 @@
       <c r="F8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7744,8 +7790,12 @@
       <c r="F11" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7789,8 +7839,12 @@
       <c r="F14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7834,8 +7888,12 @@
       <c r="F17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7879,8 +7937,12 @@
       <c r="F20" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7924,8 +7986,12 @@
       <c r="F23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7969,8 +8035,12 @@
       <c r="F26" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8014,8 +8084,12 @@
       <c r="F29" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8059,8 +8133,12 @@
       <c r="F32" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8104,8 +8182,12 @@
       <c r="F35" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8149,8 +8231,12 @@
       <c r="F38" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8194,8 +8280,12 @@
       <c r="F41" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8239,8 +8329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4885DF4C-CD50-428D-B6A0-71D53494FB17}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8345,8 +8435,12 @@
       <c r="F8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9907,8 +10001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE28EAC-04E1-4652-A59F-FBA9EA2DB96E}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10013,8 +10107,12 @@
       <c r="F8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10060,8 +10158,12 @@
       <c r="F11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10107,8 +10209,12 @@
       <c r="F14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10187,8 +10293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7ED2CC-32C6-4049-B976-1FB025BBAE22}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10293,8 +10399,12 @@
       <c r="F8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="4">
+        <v>45827</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10353,8 +10463,12 @@
       <c r="F12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="4">
+        <v>45827</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10413,8 +10527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E9DF4C-BD12-4AC6-9AAC-936DFC9AAD8B}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="E6" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10519,8 +10633,12 @@
       <c r="F8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10564,8 +10682,12 @@
       <c r="F11" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10609,8 +10731,12 @@
       <c r="F14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10654,8 +10780,12 @@
       <c r="F17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10699,8 +10829,12 @@
       <c r="F20" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10744,8 +10878,12 @@
       <c r="F23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10789,8 +10927,12 @@
       <c r="F26" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10834,8 +10976,12 @@
       <c r="F29" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10879,8 +11025,12 @@
       <c r="F32" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10924,8 +11074,12 @@
       <c r="F35" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10969,8 +11123,12 @@
       <c r="F38" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11014,8 +11172,12 @@
       <c r="F41" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11059,8 +11221,12 @@
       <c r="F44" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="2"/>
+      <c r="G44" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11104,8 +11270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C793BB9D-553F-4530-A4BF-72E616C75186}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -11210,8 +11376,12 @@
       <c r="F8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11270,8 +11440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A77DA8-5F4F-404D-8533-BC9C291EE38F}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="D13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -11376,8 +11546,12 @@
       <c r="F8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11421,8 +11595,12 @@
       <c r="F11" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11466,8 +11644,12 @@
       <c r="F14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11511,8 +11693,12 @@
       <c r="F17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11556,8 +11742,12 @@
       <c r="F20" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11601,8 +11791,12 @@
       <c r="F23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11646,8 +11840,12 @@
       <c r="F26" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11691,8 +11889,12 @@
       <c r="F29" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11736,8 +11938,12 @@
       <c r="F32" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11781,8 +11987,12 @@
       <c r="F35" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11826,8 +12036,12 @@
       <c r="F38" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11871,8 +12085,12 @@
       <c r="F41" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11916,8 +12134,12 @@
       <c r="F44" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="2"/>
+      <c r="G44" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11961,8 +12183,12 @@
       <c r="F47" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="G47" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11997,8 +12223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C3A01A-A4F6-4174-8DBC-8BCF35A1EEEB}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A37" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -12101,8 +12327,12 @@
       <c r="F8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12148,8 +12378,12 @@
       <c r="F11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12195,8 +12429,12 @@
       <c r="F14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12242,8 +12480,12 @@
       <c r="F17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12289,8 +12531,12 @@
       <c r="F20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12336,8 +12582,12 @@
       <c r="F23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12375,16 +12625,20 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12430,8 +12684,12 @@
       <c r="F29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12456,7 +12714,7 @@
         <v>143</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
@@ -12477,8 +12735,12 @@
       <c r="F32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12490,7 +12752,7 @@
         <v>142</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
@@ -12503,7 +12765,7 @@
         <v>143</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="4"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
@@ -12524,8 +12786,12 @@
       <c r="F35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12537,7 +12803,7 @@
         <v>142</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="4"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
@@ -12550,7 +12816,7 @@
         <v>143</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
@@ -12571,8 +12837,12 @@
       <c r="F38" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12584,7 +12854,7 @@
         <v>142</v>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="4"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
@@ -12597,7 +12867,7 @@
         <v>143</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="4"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
@@ -12618,8 +12888,12 @@
       <c r="F41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12665,8 +12939,12 @@
       <c r="F44" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="2"/>
+      <c r="G44" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12712,8 +12990,12 @@
       <c r="F47" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="G47" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12759,8 +13041,12 @@
       <c r="F50" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="G50" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12777,7 +13063,7 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="8"/>
+      <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -12806,8 +13092,12 @@
       <c r="F53" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="G53" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12853,8 +13143,12 @@
       <c r="F56" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="G56" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12900,8 +13194,12 @@
       <c r="F59" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="G59" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12939,16 +13237,20 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="G62" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12992,10 +13294,14 @@
         <v>138</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G65" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13039,10 +13345,14 @@
         <v>138</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="G68" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13086,10 +13396,14 @@
         <v>138</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="G71" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13133,10 +13447,14 @@
         <v>138</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="G74" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13180,10 +13498,14 @@
         <v>138</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="G77" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13227,10 +13549,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E2BC3D-0A3A-44E9-99FA-65D95F3DCD82}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A7" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -13335,8 +13657,12 @@
       <c r="F8" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13380,7 +13706,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13413,7 +13739,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="8">
+      <c r="A17" s="2">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -13421,25 +13747,29 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -13447,7 +13777,7 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="8">
+      <c r="A19" s="2">
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -13455,25 +13785,29 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="8"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -13489,16 +13823,20 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13507,7 +13845,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -13523,16 +13861,20 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13541,7 +13883,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -13557,16 +13899,20 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13575,7 +13921,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -13591,16 +13937,20 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13609,7 +13959,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -13625,16 +13975,20 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13643,7 +13997,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -13659,16 +14013,20 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13677,7 +14035,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -13693,16 +14051,20 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13711,7 +14073,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -13727,16 +14089,20 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13745,7 +14111,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -13761,16 +14127,20 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="G37" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13779,7 +14149,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -13795,16 +14165,20 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="G39" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13813,12 +14187,50 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13837,8 +14249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068453B4-1B31-4A23-A618-C3E281AC7D35}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A16" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -13943,8 +14355,12 @@
       <c r="F8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13988,8 +14404,12 @@
       <c r="F11" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14033,8 +14453,12 @@
       <c r="F14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14078,8 +14502,12 @@
       <c r="F17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14123,8 +14551,12 @@
       <c r="F20" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14168,8 +14600,12 @@
       <c r="F23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14213,8 +14649,12 @@
       <c r="F26" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14242,7 +14682,7 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="8">
+      <c r="A29" s="2">
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -14258,12 +14698,18 @@
       <c r="F29" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="G29" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="8"/>
+      <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -14276,7 +14722,7 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="8"/>
+      <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -14303,8 +14749,12 @@
       <c r="F32" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14348,8 +14798,12 @@
       <c r="F35" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14361,7 +14815,7 @@
         <v>80</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="4"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
@@ -14393,8 +14847,12 @@
       <c r="F38" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14438,8 +14896,12 @@
       <c r="F41" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14483,8 +14945,12 @@
       <c r="F44" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="2"/>
+      <c r="G44" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14528,8 +14994,12 @@
       <c r="F47" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="2"/>
+      <c r="G47" s="3">
+        <v>45827</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
